--- a/excel/Machinery_Part/Section11.xlsx
+++ b/excel/Machinery_Part/Section11.xlsx
@@ -26021,7 +26021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX21"/>
+  <dimension ref="A1:CX22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36800,6 +36800,518 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Main air reservoir△1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(+)reservoir &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>(+)condenser &amp; (+)reservoir &amp; (+). &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>(+)condenser &amp; (+)reservoir &amp; (+). &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>(+)condenser &amp; (+)reservoir &amp; (+). &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>(+)condenser &amp; (+)reservoir &amp; (+). &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>(+)11.2 &amp; (+)PAINTING &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>(+)drain &amp; (+)cooler &amp; (+)△2 &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>(+)Maker &amp; (+)’ &amp; (+)standard &amp; (+). &amp; (-)Main &amp; (-)air &amp; (-)reservoir△1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
